--- a/examples/sCO2_feasibility/run_time_prediction.xlsx
+++ b/examples/sCO2_feasibility/run_time_prediction.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17445" windowHeight="7260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17445" windowHeight="7260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2019-02-21" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Monte Carlo</t>
   </si>
@@ -69,6 +70,48 @@
   </si>
   <si>
     <t># of processors</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>clock time</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>cores</t>
+  </si>
+  <si>
+    <t>run time</t>
+  </si>
+  <si>
+    <t>run time/task</t>
+  </si>
+  <si>
+    <t>total cases</t>
+  </si>
+  <si>
+    <t>expected run</t>
+  </si>
+  <si>
+    <t>expected finish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -112,10 +155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -564,4 +608,201 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Q28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="C5">
+        <v>101</v>
+      </c>
+      <c r="D5">
+        <v>133.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <f>B7*B5</f>
+        <v>235.79999999999998</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:D8" si="0">C7*C5</f>
+        <v>707</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>935.19999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <f>B8/B6</f>
+        <v>12.410526315789474</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:D9" si="1">C8/C6</f>
+        <v>19.638888888888889</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>11.133333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <f>26*3</f>
+        <v>78</v>
+      </c>
+      <c r="C12">
+        <f>117*4</f>
+        <v>468</v>
+      </c>
+      <c r="D12">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <f>B5/B6*(B12-B6)</f>
+        <v>244.07368421052632</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="2">C5/C6*(C12-C6)</f>
+        <v>1212</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>1774.9714285714285</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>B13/60</f>
+        <v>4.0678947368421055</v>
+      </c>
+      <c r="C14">
+        <f>C13/60</f>
+        <v>20.2</v>
+      </c>
+      <c r="D14">
+        <f>D13/60</f>
+        <v>29.582857142857144</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3">
+        <f>IF(B14+B4&gt;24,(B4+B14)-24,B4+B14)</f>
+        <v>19.067894736842106</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" ref="C15:D15" si="3">IF(C14+C4&gt;24,(C4+C14)-24,C4+C14)</f>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="3"/>
+        <v>20.582857142857144</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>